--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_0_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_0_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.79000000000044</v>
+        <v>25.96000000000062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003001433687380706</v>
+        <v>0.0006639630043193678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003495721760965803</v>
+        <v>0.002146307009687996</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.877577515536531</v>
+        <v>4.453822739086347</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6795019340004593, 8.075653097072603]</t>
+          <t>[1.7469926267198037, 7.160652851452889]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002901837984350397</v>
+        <v>0.00133078966604705</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005803675968700794</v>
+        <v>0.00133078966604705</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.276789871070081</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, -1.66042134243785]</t>
+          <t>[-2.213895123250465, -0.6541053773240009]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.644329200052198e-12</v>
+        <v>0.0003442742813308808</v>
       </c>
       <c r="R2" t="n">
-        <v>5.288658400104396e-12</v>
+        <v>0.0003442742813308808</v>
       </c>
       <c r="S2" t="n">
-        <v>13.1415479228954</v>
+        <v>13.71027461994294</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.496847379605228, 14.78624846618558]</t>
+          <t>[12.106905714240236, 15.313643525645647]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.982962962963123</v>
+        <v>5.924804804804946</v>
       </c>
       <c r="X2" t="n">
-        <v>6.551111111111231</v>
+        <v>2.702542542542607</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.41481481481502</v>
+        <v>9.147067067067287</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,53 +652,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2600000000002</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01920629066117108</v>
+        <v>9.588033888285885e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04340483163145003</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.0001348797381065738</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3740184267162057</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>3.620128037842492</v>
+        <v>6.260352112712463</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[0.274519458208097, 6.965736617476887]</t>
+          <t>[3.039134422295586, 9.48156980312934]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0340422794677866</v>
+        <v>0.0001604570184412513</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0340422794677866</v>
+        <v>0.0003209140368825025</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5220264069028078</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 1.7233160902574625]</t>
+          <t>[-1.8365266363327724, -0.6541053773240009]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.3930790163219879</v>
+        <v>4.466460549501505e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3930790163219879</v>
+        <v>8.932921099003011e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>14.10896002129598</v>
+        <v>12.32367413877413</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.326483714621883, 15.89143632797008]</t>
+          <t>[10.559271637210712, 14.08807664033755]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.32748748748767</v>
+        <v>4.518918918918946</v>
       </c>
       <c r="X3" t="n">
-        <v>16.88038038038053</v>
+        <v>2.373573573573588</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.77459459459481</v>
+        <v>6.664264264264304</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_0_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_0_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.96000000000062</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006639630043193678</v>
+        <v>2.210980876160562e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002146307009687996</v>
+        <v>0.0004326897205389384</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.453822739086347</v>
+        <v>6.290082402465602</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.7469926267198037, 7.160652851452889]</t>
+          <t>[3.013149013634674, 9.56701579129653]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.00133078966604705</v>
+        <v>0.0001887766657571177</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00133078966604705</v>
+        <v>0.0003775533315142354</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.207579158136618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, -0.6541053773240009]</t>
+          <t>[-1.7987897876410033, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003442742813308808</v>
+        <v>7.262831976162509e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0003442742813308808</v>
+        <v>7.262831976162509e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>13.71027461994294</v>
+        <v>12.91288669397476</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.106905714240236, 15.313643525645647]</t>
+          <t>[11.056211574913235, 14.76956181303628]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.924804804804946</v>
+        <v>4.962402402402521</v>
       </c>
       <c r="X2" t="n">
-        <v>2.702542542542607</v>
+        <v>2.532892892892954</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.147067067067287</v>
+        <v>7.391911911912088</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.80000000000013</v>
+        <v>24.16000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>9.588033888285885e-06</v>
+        <v>0.0002973007602783406</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001348797381065738</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3740184267162057</v>
-      </c>
+        <v>0.001495860499497709</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.260352112712463</v>
+        <v>5.423165510559322</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.039134422295586, 9.48156980312934]</t>
+          <t>[2.2272910109035102, 8.619040010215134]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001604570184412513</v>
+        <v>0.0009490972117771612</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003209140368825025</v>
+        <v>0.0009490972117771612</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.245316006828387</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.8365266363327724, -0.6541053773240009]</t>
+          <t>[2.081816152829272, 3.4655006048608126]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.466460549501505e-05</v>
+        <v>6.461498003318411e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>8.932921099003011e-05</v>
+        <v>1.292299600663682e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>12.32367413877413</v>
+        <v>12.97610865231668</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.559271637210712, 14.08807664033755]</t>
+          <t>[11.13037838906927, 14.821838915564095]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>4.518918918918946</v>
+        <v>13.49477477477496</v>
       </c>
       <c r="X3" t="n">
-        <v>2.373573573573588</v>
+        <v>10.83451451451467</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.664264264264304</v>
+        <v>16.15503503503526</v>
       </c>
     </row>
   </sheetData>
